--- a/data/SRA/SRA_metadata_MC4R.xlsx
+++ b/data/SRA/SRA_metadata_MC4R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsabell/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD18D6-8804-5C4C-90DD-284F30E85423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5928D04-507B-0F4E-B343-9C8AF17A55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="660" windowWidth="24420" windowHeight="14080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="501">
   <si>
     <t>filename</t>
   </si>
@@ -1930,6 +1930,9 @@
   </si>
   <si>
     <t>Gs_aMSH0.5_Rep4</t>
+  </si>
+  <si>
+    <t>Gs_aMSH0.5_Rep4.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -3187,8 +3190,8 @@
   <dimension ref="A1:Q285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3564,7 +3567,7 @@
         <v>300</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>424</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
